--- a/deuChatbot/research_result/results/bleu_score/bleu_version_1(2000_200).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_1(2000_200).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6057,61 +6057,3363 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. **실기종목**: 시각디자인, 산업디자인, 공예디자인 중 선택 가능합니다.
+2. **배점 및 비율**:
+   - 시각디자인: 70%
+   - 산업디자인: 20%
+   - 공예디자인: 10%
+3. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+4. **실기주제**: 주제A와 주제B를 각각 하나씩 선택하여 연결된 주제로 작업해야 합니다.
+   - 예시: 잠자리와 저울을 연결한 주제
+5. **화지크기**:
+   - 켄트지 3절 (약 297mm x 420mm)
+6. **시험 시간**: 5시간 동안 진행됩니다.
+이러한 정보를 바탕으로 디자인조형학과의 실기고사 준비를 체계적으로 할 수 있습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3481435766936642</v>
+        <v>0.2934282403990868</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **시각디자인**
+2. **산업디자인**
+3. **공예디자인**
+**준비물:**
+- 볼펜, 연필, 색연필
+- 수채물감 등 표현에 필요한 도구
+**실기주제:**
+- 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+**화지크기:**
+- 켄트지3절 (A4 크기)
+**시간:**
+- 5시간
+예시로 주제A와 주제B는 다음과 같습니다:
+- **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+**주의사항:**
+- 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+- 제공된 사물은 모두 1회 이상 표현하세요.
+- 제공된 사물의 색상은 변경하지 마세요.
+이러한 준비물을 가지고 주제A와 주제B를 연결하여 당일 추첨된 주제에 따라 그림을 그리는 실기 시험이 진행됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2985142722158284</v>
+        <v>0.5997928515714456</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남)
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.8534527788592557</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일 시험에서는 주제A와 주제B 각각에서 1개의 주제를 선택하여 연결된 주제로 만드는 작업을 수행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.7977467148822094</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 학생부교과 전형에서는 출결 점수가 직접적으로 반영되지 않습니다. 
+하지만, 기타사항 나군 실기/실적(경기실적우수자전형)의 경우, 학생부 출결상황이 다음과 같이 반영됩니다:
+- 0~2일 결석: 120점
+- 3~6일 결석: 90점 
+- 7~12일 결석: 60점
+- 13~20일 결석: 30점
+- 21일 이상 결석: 0점
+따라서, 출결이 학생부교과 전형에 영향을 미치는 경우는 없지만, 실기/실적 전형에서는 출결 점수가 반영됩니다.
+학생부교과 전형에서 중요한 것은 주로 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 등 교과 성적입니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0002015838939965827</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+참조 정보:
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 / 
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1513167153264546</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 이라고 표기되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.3965965047025625</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5745637912755202</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 139점
+- 등급 2: 131점 
+- 등급 3: 123점
+- 등급 4: 115점
+- 등급 5: 107점
+- 등급 6: 99점
+- 등급 7: 91점
+- 등급 8: 83점
+- 등급 9: 75점
+이 점수들은 영어 등급별로 대략적인 변환점수를 나타내는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5997285877164652</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+표에서 다음과 같이 명시되어 있습니다:
+```
+지원자격 : 국내 고교 졸업(예정)자로서 6년과정, 12년과정 2개 유형중 1개의 유형에 해당하는 자
+교육진흥법 시행규칙 제2조에 따른 도서·벽지로 지정된 지역은 농어촌지역으로 인정합니다.(태백시는 농어촌지역으로 인정)
+농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.
+```
+따라서 예술고 학생은 농어촌학생전형의 지원 자격에 해당하지 않기 때문에 지원이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.1884544363618769</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 해당 등급의 배점은 275점입니다.
+참조할 수 있는 기록별 배점표는 다음과 같습니다:
+```
+4 / { 268～271 /  218~221 /  275 / } / { 14.80~14.99 /  15.70~15.89 /  275 / } /
+```
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218cm 이상부터 221cm 이하이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.06794767628602641</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에 따르면 경기지도학과의 전형요소 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서, 동의대학교 경기지도학과에서는 출결이 전체 평가에서 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0004204464023501501</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.
+이 정보는 "전형일정" 표 중에서 확인할 수 있으며, 해당 표의 [표 내용] 부분에 다음과 같이 명시되어 있습니다:
+```
+공과대학 / 공학 / 물리치료학과 / 4 /
+```</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.06534403386149036</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후
+- 입학안내 홈페이지에서 안내를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.001085811185178745</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 하지만, 응용화학과는 공과대학에 속하며, 공과대학의 모집단위 중 하나입니다.
+공과대학 내의 응용화학과의 모집인원은 101명이며, 지원 인원이 122명으로 경쟁률이 1.21:1입니다. 수능 4개 영역 (국어 + 수학 + 탐구) 표준 변환 점수 합의 평균은 269.13이고, 표준 편차는 24.49입니다.
+수능 최저기준에 대한 명확한 정보가 제공되지 않았으므로, 일반적으로 수능 최저기준은 모집인원과 지원 인원의 비율 및 평균 점수가 참고될 수 있습니다. 하지만 정확한 수능 최저기준을 확인하려면 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하는 것이 가장 정확할 것입니다.
+추가로, 수능 최저기준은 학교마다 다르고, 때때로 변경될 수 있으므로, 2024학년도 최종 수능 최저기준은 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>6.54671772704083e-13</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과와 전공은 다음과 같습니다:
+1. 심리학과 (신설)
+2. 스마트항만물류학과 (신설)
+3. 창업투자경영학과 (신설)
+4. 라이프융합학부 (신설) - 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+5. 경기지도학과 (신설)
+위와 같이 동의대학교에서는 다양한 분야에서 신설 학과 및 전공을 추가하여 교육 프로그램을 확대하였습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.4850714939935429</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 비율은 표에서 명시되어 있습니다:
+```
+학생부종합(성인학습자(정원내·외)전형) / { 70% /  30% / } /
+``` 
+따라서, 이 전형에서는 서류 평가의 비중이 더 높게 설정되어 있으며, 면접 평가는 보조적인 역할을 합니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.08753363908284152</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다.
+관련 정보는 다음과 같습니다:
+- [가산점] 표에서 공과대학, ICT융합공과대학 모집단위에 대해 "수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여"라고 명시되어 있습니다.
+따라서 수능 가산점을 적용받을 수 있는 학과는 공과대학과 ICT융합공과대학입니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.3474747488233217</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 또는 언어와매체) : 25%
+- 수학(확률과통계, 미적분, 기하 중 선택) : 25%
+- 영어 : 25%
+- 탐구(사회탐구, 과학탐구, 직업탐구 중 2개 과목 선택) : 25%
+특히 공과대학, ICT융합공과대학의 경우 수학(미적분 또는 기하) 응시자에게는 수학 취득 표준점수의 10% 가산점이 부여됩니다.
+따라서 가군에서의 수능 성적 반영은 국어, 수학, 영어, 탐구 등 네 가지 영역을 각각 25%씩 반영하며, 공과대학 및 ICT융합공과대학에서는 수학 점수에 추가로 10% 가산점이 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.045928384001162</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일(화)에 시행됩니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024년 1월 17일(수)에 시행됩니다.
+따라서, 레저스포츠학과와 태권도학과는 1월 16일, 디자인조형학과 및 체육학과는 1월 17일에 실기고사가 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.01690678992325018</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외되었습니다.
+이러한 결론은 전형요소 반영비율 표에서 확인할 수 있습니다. 해당 표에서 나군 수능(일반학생전형) 모집단위를 살펴보면, 한의예과와 디자인조형학과, 체육학과, 경기지도학과가 실질적으로 제외되었음을 알 수 있습니다.
+- 한의예과는 수학 영역에 대한 특정 가산점이 반영되는 모집단위입니다.
+- 디자인조형학과와 체육학과는 실기/실적 위주 전형에서 포함됩니다.
+- 경기지도학과는 학생부교과 위주 전형인 나군 학생부교과(농어촌학생전형)에서 제외되었습니다.
+따라서, 2024학년도 동의대학교 나군 수능(일반학생전형)에서는 이들 모집단위가 제외된 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.01151741257468915</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준은 적용되지 않습니다.
+참조된 정보:
+- [전형 유형 / 다군 수능(일반학생전형) / 수능최저기준] : 수능최저기준 없음</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.2077283031995666</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 주요 변경 사항은 다음과 같습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+이 외에도 일부 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.88649506269251</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시까지**입니다.
+추가 유의사항:
+- 접속이 차단되므로 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우, 지원자 본인의 책임으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.07325894103517348</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형)**:
+   - 신설된 전형으로, 지원 자격이 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+2. **학생부종합(성인학습자(정원내)전형)** 및 **학생부종합(성인학습자(정원외)전형)**:
+   - 지원 자격이 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자로 변경되었습니다.
+3. **학생부종합(재직자전형)**:
+   - 지원 자격 중 재직기간 산정 기준이 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함으로 변경되었습니다.
+4. **학생부종합 평가영역**:
+   - 평가 영역이 공동체역량, 학업역량, 전공적합성으로 변경되었습니다.
+5. **전형요소 반영비율**:
+   - 학생부종합(조기취업형계약학과전형)의 서류와 면접 비율이 60%:40%에서 70%:30%로 변경되었습니다.
+위와 같은 변화가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2452720650955224</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 실기가 큰 비중을 차지합니다. 
+특히 레저스포츠학과와 태권도학과는 실기가 70%의 비중을 차지하며, 다른 모집단위들은 수능이 100% 반영되는 것으로 보입니다.
+가군 실기/실적(일반학생전형) 전형요소 반영비율 표에서 확인할 수 있습니다:
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }
+```
+따라서 동의대학교 가군 실기/실적 전형에서 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.002418981794661738</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+这三个专业方向共同组成了新的生活融合学部。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.6463967188882105</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 수능 성적을 기반으로 전형이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.2597719378139743</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과
+이러한 학과들은 실기/실적 위주 전형으로 모집을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.6120557754520198</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학에 신설된 라이프융합학부에서는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业旨在融合生活、文化和商业，为学生提供跨领域的知识和技能。</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5287454088024856</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서는 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고) 출신 학생은 지원이 제한됩니다. 
+특히 주요 내용 중에 다음과 같이 명시되어 있습니다:
+- "농어촌학생전형"에서는 "농어촌지역 또는 도서·벽지에 소재한 특수목적고(과학고, 국제고, 외국어고, 체육고, 예술고) 출신자는 지원할 수 없습니다."
+따라서 특수목적고등학교 학생은 일반학생전형(&lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 등)으로 지원하기 위해서는 농어촌학생전형 외의 다른 전형을 찾아볼 필요가 있습니다. 
+만약 농어촌학생전형에 지원하려면, 해당 학교에서 제공하는 농어촌학생전형에 대한 자격요건과 제출서류 등을 확인해야 합니다.
+관련 정보를 찾기 위해서는 동의대학교 입학정보 홈페이지나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.1079031771846969</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 정확히 파악하기 위해서는 각 학과별로 정원 내외 모집 인원을 모두 확인해야 합니다. 하지만 제공된 정보만으로 판단한다면, 다음과 같은 점들을 고려할 수 있습니다:
+1. **정원 외 모집인원**: 일부 학과에서 정원 외로 많은 인원을 모집하고 있는 경우가 있습니다.
+2. **학과 신설 및 전공 변경**: 2024년도에 신설된 학과나 전공이 있다면, 이들 학과는 새로운 모집인원을 가질 수 있습니다.
+제공된 "나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원" 표와 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 모집단위 및 모집인원" 표를 살펴보면, 다음과 같은 학과들이 많은 인원을 모집하고 있습니다:
+- **미래융합대학 라이프융합학부**: 11명 (학생부종합(평생학습자전형))
+- **미래융합대학 부동산자산경영학부**: 7명 (학생부종합(성인학습자(정원내)전형)) 및 17명 (학생부종합(성인학습자(정원외)전형))
+- **미래융합대학 스마트항만물류학과**: 신설 학과로, 정확한 모집인원은 제공되지 않았지만 신설 학과는 많은 관심을 받을 수 있습니다.
+- **미래융합대학 창업투자경영학과**: 신설 학과로, 정확한 모집인원은 제공되지 않았습니다.
+따라서, 2024년 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **미래융합대학 라이프융합학부**와 **미래융합대학 부동산자산경영학부**로 추정할 수 있습니다. 하지만 정확한 정보를 얻기 위해서는 전체 모집단위 및 모집인원 표를 확인해야 합니다.
+추가적으로, 2024년도에 신설된 학과나 전공들이 많은 관심을 받을 가능성이 높으므로, 해당 정보를 참고하시면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>9.315113930923452e-05</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你不满足东义大学农区学生选拔类型的申请资格。根据提供的信息，农区学生选拔类型（農어촌학생전형）的申请资格如下：
+1. 对于6年课程：在农村（邑·面）地区中学和高中期间，本人及父母双方均需居住在该地区。
+2. 对于12年课程：无需考虑父母的居住地，只要学生本人在农村（邑·面）地区的初中、高中全程就读并居住即可。
+而你提到自己是特殊目的高中（特수목적고등학교）的学生。根据补充内容中的说明：
+- 科学高中（과학고）、国际高中（국제고）、外语高中（외국어고）、体育高中（체육고）、艺术高中（예술고）的毕业生不能申请农区学生选拔类型。
+因此，你作为特殊目的高中的学生不符合东义大学农区学生选拔类型的申请资格。建议你可以考虑其他适合你的招生类型进行申请。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.08102730961166765</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 정보는 제공된 데이터에서 찾을 수 없습니다. 데이터에는 소프트웨어공학과 관련된 모집단위가 포함되어 있지만, 합격자의 평균 성적은 명시되어 있지 않습니다.
+만약 이 정보를 얻고 싶다면, 동의대학교 입학처 웹사이트나 해당 학과에 직접 문의하시는 것이 가장 정확한 결과를 얻는 방법일 것입니다. 또한, 제공된 데이터에서 수능(일반학생전형) 최초합격자 표를 확인해 보시면, 각 모집단위별로 지원 인원, 경쟁률 등은 알 수 있지만, 합격자의 평균 성적 정보는 포함되어 있지 않습니다.
+추가적으로, 동의대학교 입학처 웹사이트에서 2024학년도 입학 결과나 통계를 확인해 보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.07678613654159586</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 현재 제공된 표는 각 모집단위별로 수능(일반학생전형) 최종등록자의 성적 통계를 나타내고 있으며, 소프트웨어공학부에 대한 특정한 최초합격자 평균 성적 정보가 포함되어 있지 않습니다.
+만약 해당 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보시거나, 직접 입학처로 문의하시면 정확한 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2029278550909345</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024년 나군 합격자는 다음과 같은 일정에 따라 발표됩니다:
+- 최초합격자부터 2차 충원합격자 발표까지는 홈페이지를 통해 실시합니다.
+- 모든 지원자는 전형 일정에 명시된 합격자 발표일에 반드시 합격 여부를 확인해야 합니다.
+具体的来说，以下是关于合格者公布时间的具体信息：
+- 最初的合格者和补充合格者的公布将通过学校网站进行。
+- 所有申请人都应在招生日程表上指定的公布日期内检查自己的合格状态。</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3198067986594612</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 질문하신 내용은 면접시험에 대한 날짜 정보가 포함되어 있지 않습니다. 면접시험의 일정은 일반적으로 입학사정관이나 해당 전형의 안내서에서 확인할 수 있습니다.
+면접 시험을 준비하려면 다음 사항들을 참고하시기 바랍니다:
+1. 공식적인 일정이 발표되는 동영상이나 홈페이지를 확인하세요.
+2. 면접 날짜와 시간은 대학 입학처 또는 관련 홈페이지에서 확인 가능합니다.
+3. 면접 당일에는 정해진 시간에 맞춰 도착해야 합니다.
+만약 구체적인 날짜가 필요하다면, 동의대학교의 공식 입학 안내 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보를 확인하시기 바랍니다. 해당 사이트에서 전형 일정과 면접 날짜 등이 공지되어 있을 것입니다.
+만약 아직 일정이 발표되지 않았다면, 대학 입학처에 직접 문의하시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.01235035776057092</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준에 대한 정보는 제공된 데이터에서 명확히 확인할 수 없습니다. 하지만 일반적으로 한의예과의 지원 자격은 다음과 같은 특징을 가질 수 있습니다:
+1. 고등학교 졸업 자격이 필요합니다.
+2. 일부 대학에서는 특정 과목(특히 생물, 화학 등)의 성적이 요구될 수 있습니다.
+따라서 동의대학교 한의예과의 최저학력 기준을 정확하게 확인하려면 공식 입학 안내 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나, 대학 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.
+만약 추가 정보가 필요하시다면 해당 웹사이트에서 2024학년도 입시 안내를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>4.072661802161884e-07</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집에서는 각 모집단위별로 수능 최저학력 기준이 설정되어 있습니다. 하지만 상세한 수능 최저학력 기준에 대한 정보는 공지된 자료에서 확인할 수 없습니다.
+공지된 내용 중 수능 성적 관련 부분은 다음과 같습니다:
+- 수능성적 반영방법과 전형요소 반영비율 등이 제시되어 있지만, 명확한 최저학력기준은 포함되어 있지 않습니다.
+- 다군 수능(일반학생전형)의 경우 100% 수능 성적을 반영한다고 언급되어 있습니다.
+따라서 정확한 최저학력 기준을 확인하려면 공식 입학 안내 홈페이지나 학교 입학처에 직접 문의하는 것이 가장 확실합니다. 
+https://ipsi.deu.ac.kr/main.do 링크를 통해 공식 웹사이트에서 최신 정보를 확인할 수 있습니다.
+만약 정시모집에서 수능최저학력기준이 설정되어 있다면, 해당 기준은 학교별로 다를 수 있으며, 특정 모집단위에 따라 다르게 적용될 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>7.715872809627938e-09</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우에도 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있으므로, 이 기간 동안 전화를 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4125932120341514</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 추가합격자 발표가 시작됩니다. 
+발표 일정은 다음과 같습니다:
+- 2024. 02. 15.(목) 09:00 - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+- 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+이 발표는 홈페이지를 통해 개별적으로 이루어지며, 지원자는 이 기간 내에 합격 여부를 확인해야 합니다.
+등록 일정은 다음과 같습니다:
+- 2024. 02. 15.(목) 09:00 ~ 16:00 - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+- 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+모든 지원자는 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 우리대학 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.1193038085984542</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리기준에 따르면, 최저합격선에서 동점자가 발생할 경우 그 인원을 모두 합격 처리하고, 모집인원을 초과하는 인원만큼 차차년도 모집에서 감축하여 모집합니다. 따라서 추가모집은 일반적으로 이루어지지 않습니다.
+만약 특정 전형에서 동점자들이 모두 합격 처리되면서 해당 전형의 모집인원이 충족된 경우, 그 이후에는 더 이상의 학생을 모집하지 않습니다. 차차년도 모집에서는 감축된 인원만큼만 모집하게 됩니다.
+따라서 추가모집 여부는 동점자 처리 결과에 따라 결정되며, 현재 제공된 정보로는 추가모집이 예정되어 있지 않다는 결론을 내릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1467663535374009</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입학전형 중 하나로, 주로 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자를 대상으로 합니다. 이 전형의 특징과 관련 정보는 다음과 같습니다:
+1. **지원 자격**:
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+   - 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+2. **모집 단위 및 인원**:
+   - 예를 들어, 미래융합대학의 라이프융합학부는 학생부종합(평생학습자전형)으로 11명을 모집합니다.
+3. **서류 제출**:
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+4. **면접**:
+   - 면접은 지원동기, 학업계획, 학업역량 및 전공적합성과 관련된 질문을 통해 평가됩니다.
+   - 면접은 입학사정관 2인이 평가위원으로 참여하여 개별적으로 진행되며, 블라인드 면접 방식으로 이루어집니다.
+5. **평가 기준**:
+   - 서류 평가는 공동체역량, 학업역량, 전공적합성 등 세 가지 영역에서 이루어지며, 각 영역별로 최고점 140점, 280점, 280점까지의 점수를 받을 수 있습니다.
+   - 면접 평가는 학업역량과 전공적합성에 중점을 둡니다.
+6. **동점자 처리**:
+   - 동점자가 발생할 경우, 면접 성적이 상위자부터 우선적으로 선발됩니다.
+7. **전형료**:
+   - 40,000원 (2024년 기준)
+8. **서류 제출 기간 및 장소**:
+   - 2024년 1월 3일(수)부터 12일(금)까지 도착분에 한해 동의대학교 입학관리팀으로 제출해야 합니다.
+이러한 정보를 바탕으로 평생학습자전형을 준비할 수 있습니다. 자세한 내용은 공식 홈페이지나 입학처에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.4117994695679075</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+이러한 자격을 갖춘 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.4582194822327283</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1933873026111778</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+- **일정**: 2024년 1월 16일(화)
+- **대기실 및 입실시간 안내**: 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+따라서 체육학과의 실기고사는 2024년 1월 16일에 진행되며, 이 날짜 전날인 1월 12일부터 대기실 및 입실시간 안내를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.08519166872753635</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 충원합격자 발표 기간 동안 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 이 기간에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+즉, 수시 충원합격자 발표 시에는 별도의 개인 연락은 하지 않으며, 지원자는 이 기간 동안 전화를 확인하고 응답해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.3138332193597678</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024학년도 모집요강에서 경찰행정학과에 대한 정보가 제공되지 않았습니다. 2024학년도의 변경사항 목록에서도 경찰행정학과 관련 내용은 없습니다.
+이전 년도의 정확한 수시모집 결과는 동의대학교 입학처 웹사이트나 공식 발표 자료를 참조해야 합니다. 해당 정보가 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 동의대학교 입학 안내 페이지를 확인해 보세요.
+만약 경찰행정학과가 2024년도에도 존재한다면, 해당 학과의 모집요강은 2023년도와 유사할 가능성이 높습니다. 그러나 새로운 변화나 신설/폐지 등이 있다면 공식 발표를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.09909676348775441</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서 일부 모집단위는 수능을 필수로 요구하지 않습니다. 예를 들어, 디자인조형학과, 체육학과, 경기지도학과 등은 수능 응시 없이 지원할 수 있는 전형이 있습니다.
+특히 나군 학생부교과(농어촌학생전형)와 같은 전형에서는 수능을 제외한 다른 평가 기준으로 지원할 수 있습니다. 그러나 일반적으로 정시모집의 많은 모집단위는 수능 점수를 반영하기 때문에, 수능 응시 여부에 따라 지원 가능한 학과가 제한될 수 있습니다.
+자세한 내용은 입학처 홈페이지나 해당 대학의 정시모집요강을 확인하시거나, 대학 입학办公室可以提供更多详细信息。如果您需要更详细的说明或具体某个专业的信息，请告诉我，我会尽力提供帮助。
+如果有任何其他问题或需要更多信息，请随时提问！</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.0001799985217569018</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정보를 기반으로 답변 드리겠습니다. 일반적으로 대학의 정시 모집에서는 고등학교 졸업 후 10년 이상 경과한 경우 지원이 불가능합니다. 하지만 특정 전형이나 특별한 예외 사항이 있는 경우에는 다르게 적용될 수 있습니다.
+나군 학생부교과(농어촌학생전형)와 같은 일부 전형에서는 고등학교 졸업 후 10년 이상 경과한 경우에도 지원이 가능하지만, 이는 해당 전형의 특성에 따라 달라집니다. 위에서 제공된 정보로는 정확히 확인할 수 없는 부분이 있습니다.
+따라서, 정시 지원이 가능한지 확인하려면 다음과 같은 절차를 따르세요:
+1. **대학 홈페이지**를 방문하여 해당 대학의 2024년도 모집요강을 확인합니다.
+2. **모집요강에서 해당 전형(일반학생전형 등)에 대한 지원 자격 조건**을 다시 한번 확인합니다.
+3. **문의하기**: 만약 불확실한 점이 있다면, 대학 입학처 또는 학생부종합전형 담당 부서에 직접 문의하여 확인하는 것이 좋습니다.
+위 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년 이상 경과한 경우 정시 지원이 어렵지만, 특정 전형에서는 가능할 수 있으므로 대학의 공식 모집요강을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.03437940046508887</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**:
+   - 시작: 2024년 1월 3일(수)
+   - 마감: 2024년 1월 6일(토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작: 2024년 1월 3일(수)
+   - 마감: 2024년 1월 12일(금) 17시까지 도착
+4. **&lt;가&gt;군 실기고사** (레저스포츠학과, 태권도학과):
+   - 날짜: 2024년 1월 16일(화)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사** (디자인조형학과, 체육학과):
+   - 날짜: 2024년 1월 17일(수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표:
+     - &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군: 2024년 2월 2일(금) 14:00
+     - 홈페이지에서 개별 조회 가능
+   - 최초 합격자 등록: 2024년 2월 7일(수) ~ 2월 13일(화)
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024년 2월 14일(수) 09:00
+     - 2차 (인터넷): 2024년 2월 15일(목) 09:00
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+7. **합격자 발표 및 등록금 납부**:
+   - 지정 기간 내에 등록금을 납부하지 않으면 입학을 포기한 것으로 간주됩니다.
+이 일정은 변경될 수 있으므로, 최신 정보는 동의대학교 입학관리 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4010073110215543</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+   - 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**:
+   - 시작일: 2024년 1월 3일(수)
+   - 마감일: 2024년 1월 6일(토) 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024년 1월 3일(수)
+   - 마감일: 2024년 1월 12일(금) 17시까지 도착
+4. **&lt;가&gt;군 실기고사** (레저스포츠학과, 태권도학과):
+   - 날짜: 2024년 1월 16일(화)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사** (디자인조형학과, 체육학과):
+   - 날짜: 2024년 1월 17일(수)
+   - 대기실 및 입실시간 안내: 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표:
+     - 날짜: 2024년 2월 2일(금) 14:00
+     - 방법: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+   - 최초 합격자 등록:
+     - 날짜: 2024년 2월 7일(수) ~ 13일(화)
+   - 충원 합격자 발표 (1차):
+     - 날짜: 2024년 2월 14일(수) 09:00
+   - 충원 합격자 등록 (1차):
+     - 날짜: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - 충원 합격자 발표 (2차):
+     - 날짜: 2024년 2월 15일(목) 09:00
+   - 충원 합격자 등록 (2차):
+     - 날짜: 2024년 2월 15일(목) 09:00 ~ 16:00
+   - 충원 합격자 발표 (3차 이후, 개별 전화 통보):
+     - 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 충원 합격자 등록 (3차 이후, 개별 전화 통보):
+     - 날짜: 개별 전화 통보 시 안내
+7. **등록금 환불 신청 기간**: 2024년 2월 14일(수) ~ 2024년 2월 20일(화) 12:00까지
+이 일정은 일반적으로 동의대학교 정시 모집에서 적용되며, 일부 세부사항이나 변경 사항이 있을 수 있으므로 공식 홈페이지를 통해 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6506348217869899</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **실기/실적 (일반학생전형)** - 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과
+2. **학생부교과(농어촌학생전형)**
+3. **학생부종합(평생학습자전형)**
+이러한 전형에서는 수능 점수 대신 다른 평가 기준을 통해 지원자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1793975801124854</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 모집 정보를 바탕으로, 전자공학과의 충원 합격은 다음과 같이 진행될 예정입니다:
+1차 충원 합격 발표 및 등록:
+- 2024. 02. 14.(수) 09:00
+- 2024. 02. 14.(수) 09:00 ~ 16:00
+2차 충원 합격 발표 및 등록:
+- 2024. 02. 15.(목) 09:00
+- 2024. 02. 15.(목) 09:00 ~ 16:00
+따라서 전년도에 비해 동일하게 3차까지의 충원 합격이 이루어집니다.
+만약 이 정보가 올바르지 않거나, 특정 연도의 데이터를 원하신다면, 공식 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1284967656420323</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。根据您提供的内容，如果需要联系关于入学的相关问题，可以参考以下联系方式：
+对于网上报名相关的问题，可以咨询：
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+如果您有其他具体问题或无法通过上述方式找到答案，建议直接访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）以获取最新和最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.09863758146733004</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자에 대한 개별 전화통보에서 전화 통화가 되지 않을 경우, 해당 지원자는 등록 의사가 없는 것으로 간주됩니다. 
+따라서, 지원자는 다음과 같은 절차를 준수해야 합니다:
+1. **전화 통보 기간 내에 전화 통화**: 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 시간 내에 전화 통보를 받으시기 바랍니다.
+2. **등록 의사 확인**: 전화 통화가 되지 않더라도, 합격자 발표와 등록 절차는 홈페이지를 통해 이루어집니다. 지원자는 반드시 합격 여부를 확인해야 합니다.
+3. **등록**: 지정된 기간 내에 등록금을 납부해야 하며, 이 기한 내에 등록하지 않으면 입학을 포기하는 것으로 간주됩니다.
+따라서, 전화 통화가 되지 않을 경우에도 지원자는 홈페이지를 통해 합격 여부와 등록 절차를 확인하고 준수해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1661082671854575</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두에 따라 다르게 요구되는 서류가 있습니다. 아래는 각 과정별로 필요한 서류입니다:
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**주의사항:**
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출해야 합니다.
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가로 제출해야 합니다.
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**주의사항:**
+- 중·고등학교 재학 시 부모 모두가 농어촌(읍∙면)지역에서 거주한 자는 '6년 과정' 서류제출이 가능합니다.
+### 일반적인 제출요구
+- 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 합니다.
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출 가능합니다.
+위와 같이 농어촌학생전형으로 지원 시 필요한 서류가 있습니다. 모든 서류를 정확하게 준비하고 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.7815699833043317</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원자는 다음과 같은 서류를 제출해야 합니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로 주의사항:
+- 제출기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 고교졸업 이후 발급되어야 함
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 함
+- 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+위와 같이 4종류의 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.440152070951019</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到在正选招生（정시모집）中的低收入机会均等类型（저소득 기회균등 전형）是否会进行选拔。因此，根据给出的信息无法确定是否会有此类选拔。
+如果您需要更准确的答案，请访问以下网站以获取最新和详细的信息：https://ipsi.deu.ac.kr/main.do
+或者您可以直接联系学校招生办公室确认具体的招生政策。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2072491396919178</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급 평균을 산출할 때 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다.
+따라서, 사탐(사회) 2과목의 평균 등급을 계산했을 때 2.5등급이 나온다면, 이는 소수점 셋째자리까지 반영된 값입니다. 하지만 최종적으로는 소수점 셋째자리를 절사하여 3등급으로 처리됩니다.
+예를 들어:
+- 과목1: 2등급
+- 과목2: 3등급
+평균 등급 계산: (2 + 3) / 2 = 2.5등급
+이 경우, 최종적으로는 3등급으로 반영됩니다.
+따라서, 2.5등급은 소수점 셋째자리까지 반영되었지만, 최종 등급 산출 시에는 3등급으로 처리될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1396726956631002</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 나군(실기/실적) 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 14일 (수) 09:00
+   - 등록 기간: 2024년 2월 14일 (수) 09:00 ~ 16:00
+2. **2차 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일 (목) 09:00
+   - 등록 기간: 2024년 2월 15일 (목) 09:00 ~ 16:00
+3. **3차 이후 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+   - 이 경우는 개별 전화 통보를 통해 발표됩니다.
+이러한 절차로 정시 모집의 충원 합격자 발표가 이루어지며, 지원자는 각 차례에 맞춰 홈페이지에서 합격 여부를 확인하고 등록해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1924419790934681</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정확한 모집요강이나 해당 학과의 최저합격 기준 점수를 확인하기 위해서는 공식 입학처 웹사이트 (http://ipsi.deu.ac.kr)를 참조해야 합니다. 하지만 일반적으로 수능 성적만으로 판단할 때, e비즈니스학과의 경우 다음과 같은 정보가 유용합니다:
+1. **전형요소 반영 비율**: 전형요소 중 수능성적이 주요한 부분을 차지하고 있습니다.
+2. **최저합격 기준 점수**: 이는 학교마다 다르므로 공식 웹사이트를 확인해야 합니다.
+e비즈니스학과의 경우, 수능 성적 4.6 (등급점수)는 상대적으로 낮은 점수입니다. 정시 모집에서 추가로 합격 가능할지는 다음과 같은 요인에 따라 달라질 수 있습니다:
+- **모집 인원 및 지원자 수**: 해당 학과의 모집 인원과 지원자의 수가 중요합니다.
+- **기타 전형요소**: 서류평가, 면접 등 기타 평가 항목에서 좋은 성적을 받는 것이 필요할 수 있습니다.
+따라서, 정확한 답변을 위해서는 공식 입학처 웹사이트를 참조하거나 학교 관계자에게 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2324002471828965</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 최초합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **모집인원 및 지원자 수**: e비즈니스학과의 모집인원은 30명이며, 지원자는 22명입니다 (표에서 확인). 이는 경쟁률이 약 1.67:1로 낮습니다.
+2. **성적 평균 및 등급 분포**: e비즈니스학과의 성적 평균은 국어 4.31, 수학 5.72, 영어 4.46, 과탐 5.04, 사회 5.73입니다 (표에서 확인). 이 중 국어와 수학 등급이 높습니다.
+3. **성적 등급**: 정시 등급 5.3은 e비즈니스학과의 평균 성적보다 약간 낮지만, 경쟁률이 낮고 지원자가 적기 때문에 최초합격 가능성은 있습니다.
+4. **전형 요소**: 동의대학교는 학생부종합 전형을 통해 서류와 면접을 반영합니다 (표에서 확인). 따라서 성적 외에도 지원자의 전반적인 역량과 적합성을 평가받습니다.
+따라서, 정시 등급 5.3이면 e비즈니스학과의 최초 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 경쟁률이 낮고 지원자가 적기 때문에 좋은 성적을 보유하고 있다면 최초합격 가능성이 높아집니다.
+추가적으로, 지원자의 전반적인 성적 외에도 서류 및 면접에서 우수한 평가를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1004157197301624</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **成绩**：您提供的成绩是 { 104 / 108 / 4등급 / 47 / 59 }。这对应于国语、数学（微积分）、英语、物理I和化学I的标准分数。
+2. **录取标准**：e비즈니스학전공的录取标准通常会包括综合成绩，特别是国语、数学、英语等核心科目的表现。
+根据您提供的信息：
+- 国语 (104) 和 数学（微积分）(108) 的分数都比较高。
+- 英语 (4등급 / 47) 的等级为4，对应的分数是115分。这在英语科目中属于中等偏上水平。
+综合来看，您的成绩在国语和数学方面表现良好，但英语的等级稍低一些。e비즈니스学专业的录取通常会考虑学生的整体学术能力，因此除了单科成绩外，还需要参考其他因素如面试、个人陈述等。
+建议您：
+1. **详细了解**：查看东国大学e비즈니스学专业具体的录取标准和要求。
+2. **准备面试**：如果需要面试，请提前做好充分的准备。
+3. **补充材料**：如果有机会提供额外的申请材料，如推荐信、个人陈述等，可以进一步增强您的申请。
+如果您能提供更多关于该专业的具体信息或最新的招生简章内容，我可以为您提供更详细的建议。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.01697993265438803</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 점수는 동의대학교 간호학과에 지원하기에는 약간 낮은 편입니다. 하지만 여전히 합격 가능성은 있습니다. 간호학과의 경쟁률과 모집인원, 그리고 해당 학과의 평균 수능 점수가 필요합니다.
+간호학과의 경우 다음과 같은 특징이 있습니다:
+1. **모집 인원**: 22명
+2. **최저 등급**: 대략적으로 3.40~3.50 정도로 보입니다.
+3. **평균 수능 점수**: 약 3.60-3.70 사이
+3.44는 평균보다는 낮지만, 최저 등급 근처에 위치해 있습니다. 따라서 다음과 같은 요인들을 고려해야 합니다:
+1. **개별 지원자의 성적 분포**: 전체 지원자의 수능 점수가 어떻게 분포되어 있는지 확인해야 합니다.
+2. **면접 및 서류 평가 결과**: 면접과 서류 평가에서 좋은 성적을 받았다면 합격 가능성은 높아집니다.
+따라서, 3.44라는 점수로는 약간 위험한 편이지만, 최저 등급 근처에 위치해 있어 합격 가능성은 있습니다. 하지만 확실한 것은 아니므로, 동의대학교의 정확한 모집요강과 지원자의 전체 성적 분포를 확인하는 것이 중요합니다.
+추가적으로, 서류 평가와 면접에서 좋은 결과를 얻는다면 합격 가능성은 높아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.07993161697654527</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교 간호학과에 대한 정확한 지원 자격 요건과 평균 성적 등을 고려해야 합니다.
+간호학과의 경우, 일반적으로 다음과 같은 요소들이 합격 여부를 결정하는데 영향을 미칩니다:
+1. **성적**: 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+2. **등급**: 일부 대학에서는 특정 과목의 등급이 요구됩니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 고려해야 합니다.
+주어진 정보만으로는 간호학과의 최소 성적 기준이나 경쟁률 등을 알 수 없습니다. 따라서 다음과 같은 절차를 추천드립니다:
+1. **동의대학교 입학 홈페이지**를 방문하여 간호학과의 정확한 지원 자격 요건을 확인하세요.
+2. **최근 몇 년간의 합격자 성적 분석**을 통해 대략적인 기준을 파악해 보세요.
+3. **상담**: 입학처나 관련 학과에 상담을 요청하여 직접적인 조언을 받으시는 것이 좋습니다.
+만약 간호학과의 최소 성적 기준이 2.52 이상이라면, 경쟁률 등을 고려해보셔야 합니다. 경쟁률이 높다면, 추가적으로 면접이나 서류 평가 등 다른 요인이 중요할 수 있습니다.
+추가 정보를 제공해주실 경우 더 구체적인 답변을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.03334464881736635</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 주로 수능 성적과 학생부 성적 등을 종합적으로 평가합니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. **수능 성적**: 3.7의 GPA는 대체로 좋은 성적이지만, 간호학과는 수능 과목별 점수가 중요할 수 있습니다.
+2. **학생부 성적**: 학생부 성적은 합격에 큰 영향을 미칩니다. 특히 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다.
+3. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서도 고려될 수 있습니다.
+4. **면접 결과**: 면접에서도 합격 가능성에 영향을 줄 수 있습니다.
+5. **모집인원과 지원자 수**: 모집인원이 적고 지원자가 많지 않다면, 3.7의 GPA로는 경쟁력을 갖추기 어렵습니다.
+6. **전형별 특성**: 간호학과는 다양한 전형을 통해 학생들을 선발하므로, 특정 전형(예: 학생부종합, 실기/실적 등)에 지원하는 것이 유리할 수 있습니다.
+따라서 3.7의 GPA로 정시 성적으로 간호학과에 합격하기는 어렵다고 볼 수 있지만, 최선을 다해 다양한 전형을 시도해보는 것이 좋습니다. 특히 학생부 성적이나 추천서 등 다른 평가 요소를 강화하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.02604258643345709</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집인원은 110명이며, 지원 인원이 많을 경우 높은 경쟁률을 기대해야 합니다. 간호학과는 일반적으로 높은 학업역량과 전공적합성이 요구되므로, 성적이 2.58이라는 점에서 불리할 수 있습니다.
+하지만 정시 모집의 경우, 학교생활기록부와 면접 등 다양한 평가 요소가 함께 고려되기 때문에 단순히 성적만으로 판단하기는 어렵습니다. 특히 간호학과는 인성과 전공 적합성이 중요하므로, 지원자의 학업태도, 진로계획, 그리고 면접 성적이 중요한 역할을 할 수 있습니다.
+따라서 다음과 같은 점들을 고려해보세요:
+1. **학업역량**: 성적 외에도 교과학습발달상황과 창의적체험활동 등이 중요합니다.
+2. **전공적합성**: 간호학과에 대한 진로계획, 관련 활동 경험 등을 잘 준비해야 합니다.
+3. **면접 성적**: 면접에서는 지원자의 인성과 전공 적합성을 잘 보여줘야 합니다.
+결론적으로 단순히 2.58의 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 충분히 준비를 하면 가능성이 있을 수 있습니다. 지원자 본인의 노력과 다양한 평가 요소들을 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.04902616033392578</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看相关录取信息。根据提供的数据表，没有直接提到游戏学系（Game Design and Engineering）的具体录取标准或名额情况。
+不过，我可以提供一些一般性的建议：
+1. 查看该专业的最终注册人数和实际录取人数。
+2. 检查是否有候补名单以及是否有可能递补。
+3. 关注学校发布的最新通知和公告，了解是否有额外的招生计划。
+通常情况下，如果您的预估号码较低（如7号），被录取的可能性较大。但具体能否录取还需等待官方公布最终结果。
+建议您密切关注学校的官方网站或联系招生办公室获取最新的录取信息。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>9.208697407332008e-79</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과의 정시모집군은 다군 수능(일반학생전형)입니다. 해당 전형의 성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+4.16이라는 점수는 정확한 등급을 알 수 없지만, 일반적으로 4등급 정도로 추정할 수 있습니다.
+예를 들어:
+- 국어: 가정해 90점 (표준점수)
+- 수학: 가정해 85점 (표준점수)
+- 영어: 4등급 (115점)
+- 탐구: 가정해 70점 (가상의 표준점수)
+이렇게 합치면:
+90 + 85 + 115 + 70 = 360 점
+다군 수능(일반학생전형)의 모집단위별 최저합격선을 확인해야 하지만, 일반적으로 게임공학과는 중간 정도의 경쟁률을 보입니다. 예를 들어, 최근 몇 년간의 최저합격선이 350점대라면, 360점은 상당히 좋은 점수로 볼 수 있습니다.
+그러나 정확한 합격 가능성은 다음과 같은 요인에 따라 달라질 수 있습니다:
+1. 모집인원과 지원자 수
+2. 다른 지원자의 성적 분포
+3. 전형의 경쟁률
+따라서, 4.16정도의 점수로는 게임공학과에서 추가 합격을 받기 쉽지 않을 것으로 예상됩니다. 하지만 최저합격선이 낮다면 기회가 있을 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 통해 최신 정보와 정확한 합격 가능성을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.06071594480120614</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 조건을 가지고 경영정보학과에 지원 가능한지 판단해보겠습니다.
+1. **모집인원 및 지원 인원**: 먼저 해당 모집단위의 모집인원과 지원 인원을 확인해야 합니다. 만약 지원 인원이 모집인원보다 적다면, 성적이 3.75인 경우 최초등록자로 가능할 수 있습니다.
+2. **경쟁률**: 경영정보학과의 경쟁률을 확인하여, 현재 경쟁률이 높은 상태인지 또는 여유가 있는지 판단해야 합니다. 만약 경쟁률이 높다면, 3.75라는 성적만으로는 최초등록자로 선발될 확률이 낮을 수 있습니다.
+3. **성적 평균**: 현재 모집단위의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균과 비교하여, 3.75라는 성적이 어느 정도인지 판단해야 합니다.
+4. **영어 등급 및 수능 4개 영역 등급**: 이들 역시 평균치와 비교하여, 현재 모집단위에서 요구하는 수준을 충족하고 있는지 확인해야 합니다.
+이러한 정보를 바탕으로 판단해보면:
+- 만약 모집인원이 많고 지원 인원이 적다면, 3.75라는 성적은 최초등록자로 선발될 가능성이 있습니다.
+- 반대로 모집인원이 적고 지원 인원이 많은 경우, 경쟁률이 높아져서는 3.75라는 성적만으로는 최초등록자로 선발되기 어렵습니다.
+따라서, 정확한 답변을 위해서는 해당 단과대학 및 모집단위의 모집인원, 지원 인원, 평균 성적 등을 확인해야 합니다. 
+**추가 정보를 제공해주시면 더 구체적인 판단이 가능할 것 같습니다.**
+만약 추가 정보를 제공하지 않으시고 정확한 답변을 원하신다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확한 방법입니다.
+[입학처 웹사이트 링크](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.03265143828088123</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>4.2라는 점수만으로는 경영정보학과의 최초 등록 가능성에 대한 확답을 내리기 어렵습니다. 하지만, 다음과 같은 정보를 확인해야 합니다:
+1. **모집인원 및 지원 인원**: 해당 학과의 모집인원과 지원 인원을 확인해보세요. 경쟁률이 높다면 최초 등록 가능성은 낮아질 수 있습니다.
+2. **경쟁률**: 4.2라는 점수는 일반적으로 좋은 성적입니다. 하지만, 이 점수만으로는 전체적인 경쟁력을 판단하기 어렵습니다. 다른 지원자의 성적과 비교해야 합니다.
+3. **전형 요소**: 경영정보학과의 전형요소를 확인하세요. 일부 학과에서는 면접이나 서류심사 등이 포함될 수 있습니다. 이들 요소도 고려해야 합니다.
+4. **출결 및 기타 성적**: 출결 기록, 과목별 석차 등 다른 성적 요인도 중요합니다. 
+5. **대학의 정책**: 각 대학은 학과 별로 최저 점수를 설정하거나, 특정 전형에서 추가적인 요구사항을 두는 경우가 있습니다.
+따라서, 정확한 답변을 위해서는 경영정보학과의 모집요강과 지원자의 전체 성적 및 기타 요인들을 종합적으로 고려해야 합니다. 대학 입학 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.07240693677630973</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과 일반학생전형에 대한 최종 등록자의 평균 수능 점수와 경쟁률을 고려해보겠습니다.
+- **평균 수능 점수**: 311.00
+- **경쟁률**: 약 4.33:1
+주요 변경사항 중에서 경영정보학과의 경우, 정시모집군이 변경되었으며, 지원 자격도 다양해졌습니다. 하지만 평균 수능 점수가 311.00이고, 학생부교과와 면접 등 다른 요소가 반영되는 전형으로 이루어져 있습니다.
+당신의 수능 성적이 5.33이라면, 이는 상대적으로 높은 점수입니다. 하지만 경쟁률이 약 4:1로 낮지 않으므로, 학생부교과 성적, 면접 등 다른 요소들이 중요하게 작용할 수 있습니다.
+따라서, 다음과 같은 조건을 충족한다면 합격 가능성은 높아질 것입니다:
+1. **학생부 교과성적**: 전반적으로 좋은 성적이 필요합니다.
+2. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 중요합니다.
+따라서, 수능 점수만으로는 확실한 합격을 보장할 수 없습니다. 다른 요소들을 잘 준비하고 지원하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.08206990332291657</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대해 성적 평균 3.33으로 최초등록자로 지원할 가능성은 낮습니다.
+바이오응용공학부는 다음과 같은 특징을 가지고 있습니다:
+1. **전형방법**: 주로 학생부종합전형을 통해 선발합니다.
+2. **성적 기준**: 일반적으로 고득점의 성적이 요구됩니다. 평균 4.0 이상이 필요하며, 일부 모집단위에서는 4.5 이상을 요구하기도 합니다.
+3. **학생부 기준**: 학생부 교과성적뿐만 아니라 진로선택과목 성적, 사회 활동 등 다양한 요소를 종합적으로 평가합니다.
+성적 평균 3.33은 일반적으로 바이오응용공학부의 최초등록자로는 낮은 수준입니다. 하지만 다음과 같은 경우에도 가능성이 있습니다:
+- **특수한 상황**: 예를 들어, 진로선택과목에서 높은 성적을 받았거나 사회 활동 등에서 뛰어난 경력을 보여줄 수 있다면.
+- **모집단위별 차이**: 일부 모집단위에서는 성적이 조금 낮더라도 다른 요소가 우수하면 선발할 수도 있습니다.
+따라서, 성적만으로는 어렵다고 판단되지만, 학생부와 면접 등에서 뛰어난 경력을 보여줄 수 있다면 지원해볼 만합니다. 하지만 최초등록자로 확정될 가능성은 낮습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.08615205387433474</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 방사선학과의 정시 모집요강을 참고하여 답변 드리겠습니다.
+방사선학과는 공과대학 소속이며, 일반학생전형에서는 주로 수능 성적을 기준으로 모집합니다. 현재 제출된 정보만으로는 방사선학과의 정확한 모집인원 및 경쟁률 등을 알 수 없습니다. 하지만 일반적으로 방사선학과의 경우 다음과 같은 특징이 있습니다:
+1. **모집인원**: 방사선학과의 정확한 모집인원은 공과대학 홈페이지나 동의대학교 입학처 웹사이트를 확인해야 합니다.
+2. **성적 기준**:
+   - 방사선학과는 주로 수능 과목 중 국어, 수학(미적분), 영어 등 주요 과목 성적이 중요합니다.
+   - 4.4등급은 상당히 좋은 성적입니다.
+3. **경쟁률**: 방사선학과의 경쟁률은 학과 모집인원 및 지원자 수에 따라 달라질 수 있습니다. 최근 몇 년간의 경쟁률을 참고하면 대략적인 예상을 할 수 있습니다.
+4. **추천사항**:
+   - 동의대학교 공과대학 홈페이지를 확인하여 방사선학과의 정확한 모집인원 및 전형요강을 확인하세요.
+   - 최근 몇 년간의 합격자 성적 분석을 통해 자신의 성적이 어느 수준인지 파악해보세요.
+   - 동의대학교 입학처에 문의하여 최신 정보를 얻으시는 것이 좋습니다.
+현재 제출된 정보만으로는 확정적인 답변을 드릴 수 없지만, 4.4등급은 방사선학과에 충분히 경쟁력 있는 성적일 것으로 보입니다. 정확한 정보를 얻기 위해서는 동의대학교 공과대학 홈페이지나 입학처와 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.02378994636316282</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 방사선학과의 정시 모집에서 2.66이라는 평균 등급을 기준으로 볼 때, 이 점수는 상대적으로 낮은 편입니다.
+방사선학과는 보통 과학적 지식과 이해력이 필요하며, 해당 학과의 전공 과목들은 과학 및 수학 관련 주제를 다룹니다. 따라서 방사선학과에 지원하려면 일반적으로 높은 과학과 수학 등급을 보유하고 있어야 합니다.
+2.66이라는 평균 등급은 다음과 같은 점들을 고려할 때 위험할 수 있습니다:
+1. **경쟁률**: 방사선학과는 인기 학과로, 경쟁률이 높습니다.
+2. **전형 기준**: 대부분의 대학에서 방사선학과에 지원하려면 3.0 이상의 등급을 보유하고 있어야 합니다.
+3. **교과 성적**: 방사선학과에서는 과학, 수학, 영어 등의 교과 성적이 중요합니다.
+따라서 2.66이라는 점수는:
+- **경쟁력이 약해질 수 있습니다**: 다른 지원자들보다 낮은 등급으로 경쟁력을 잃을 위험이 있습니다.
+- **추가 준비 필요**: 추가적으로 과학과 수학, 영어 등의 성적 향상을 위해 노력해야 할 수도 있습니다.
+하지만 이 점수만 가지고 판단하기는 어렵습니다. 지원자의 전체 학력 및 전형 요소 평가를 고려해야 합니다. 예를 들어:
+- **면접 성적**: 면접에서 좋은 성적이 있다면, 등급이 낮더라도 합격 가능성은 높아질 수 있습니다.
+- **추천서 및 자기소개서**: 강력한 추천서나 자기소개서가 있다면 이점도 고려될 수 있습니다.
+결론적으로 2.66이라는 점수는 위험할 수 있지만, 추가적인 준비와 노력으로 극복이 가능합니다. 지원자의 전체 상황을 종합적으로 고려하여 결정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.03040140734276412</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 학생부교과(농어촌학생전형)의 모집인원 및 지원자격을 확인해보겠습니다.
+1. **모집인원**: 
+   - 경찰행정학전공에 대한 정확한 모집인원은 표에서 찾지 못했습니다. 하지만 일반적으로 농어촌 학생 전형의 경우 인원이 제한적일 가능성이 있습니다.
+2. **지원자격**:
+   - 지원자는 농어촌(읍·면) 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 합니다.
+   - 지원자의 성적이 3.66이라면, 학교생활기록부의 평균 점수가 3.66 이상이어야 합니다.
+3. **학업성적**:
+   - 표에서 제공된 수능 영어영역 등급에 따른 점수를 확인하면, 4등급은 115점입니다.
+   - 학교생활기록부 반영과목의 평균 점수가 3.66 이상이어야 합니다.
+4. **합격 가능성**:
+   - 합격 가능성은 모집인원과 지원자의 수에 따라 달라질 수 있습니다. 농어촌 학생 전형은 일반적으로 인원이 제한적이므로, 경쟁률이 높을 가능성이 있습니다.
+   - 성적 3.66은 좋은 점수지만, 모집인원과 지원자의 수에 따라 결정될 수 있습니다.
+**결론**: 
+- 학업성적이 3.66이라면 충분히 합격 가능성은 있으나, 정확한 합격 여부는 모집인원과 지원자들의 성적 등 다양한 요소에 따라 결정됩니다.
+- 최종 합격 여부를 확인하려면, 동의대학교 입학관리팀으로부터 공식 안내를 받으시거나, 해당 전형의 자세한 정보를 확인하시기 바랍니다.
+추가적으로, 지원자의 경력이나 활동 등 추가적인 평가 요소도 고려될 수 있으므로, 입학사정관들의 평가 결과에 따라 결정될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.09006116088656649</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 예비 순위는 상당히 높은 위치입니다. 하지만 붙을 가능성이 완전히 없는 것은 아닙니다. 정시 모집에서 예비 합격자가 발생하면 추가로 합격자를 선발할 수 있습니다.
+다음과 같은 요인들을 고려해볼 수 있습니다:
+1. **모집 인원**: 각 모집단위의 실제 모집 인원이 얼마나 남아있는지 확인해야 합니다.
+2. **예비 합격자 수**: 예비 합격자가 많다면, 붙는 확률은 낮아질 것입니다.
+3. **등록 및 포기 상황**: 다른 합격자들이 등록하지 않거나 포기하는 경우가 있다면, 예비 합격자 순위가 올라갈 수 있습니다.
+이러한 요인들을 종합적으로 고려하면, 25위라는 위치에서 붙을 확률은 낮지만, 완전히 배제할 수는 없습니다. 
+추천 사항:
+- **등록일정 확인**: 등록 기간 동안 꾸준히 합격자 발표를 확인하고, 등록해야 합니다.
+- **포기자 대비**: 다른 합격자가 포기하는 경우에 대비해 준비하세요.
+결국, 확실한 답변은 모집 상황과 기타 변수들에 따라 달라질 수 있으므로, 최선을 다해 준비하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.2096770991788957</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 정시로 지원하려면, 정확한 평균 성적을 예측하기는 어렵습니다. 하지만 일반적으로 다음과 같은 점수대를 목표로 설정하면 안정적인 입학이 가능할 것으로 보입니다:
+1. **국어**: 90점 이상
+2. **수학(미적분)**: 85점 이상
+3. **영어**: 75점 이상 (최소 등급 4등급)
+4. **과학**: 60점 이상
+이러한 점수대는 법경찰행정학부의 경쟁률과 전반적인 입학 기준을 고려한 추정치입니다. 하지만 정시모집은 매년 변동이 있을 수 있으므로, 최종적인 성적 기준은 동의대학교 공식 홈페이지나 입학처에서 확인하는 것이 가장 정확합니다.
+추가적으로, 법경찰행정학부는 경쟁률이 높기 때문에, 조금 더 안전한 쪽으로 목표를 잡는 것이 좋습니다. 예를 들어:
+- **국어**: 95점 이상
+- **수학(미적분)**: 88점 이상
+- **영어**: 80점 이상 (최소 등급 3등급)
+이러한 점수대를 목표로 하면, 안정적인 입학을 기대할 수 있습니다. 하지만 이는 예측이며, 실제 입학 가능성을 확인하려면 동의대학교 공식 홈페이지나 입학처에 문의하는 것이 가장 좋습니다.
+또한, 지원 전형별로 점수 기준이 다를 수 있으므로, 정시모집 전형을 선택할 때도 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2939860257129489</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 최종등록자 표에서 지원 인원은 17명이고 모집인원은 9명으로 경쟁률이 약 1.88대1입니다. 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 407.50이고, 영어 등급 평균은 4.12이며, 수능 4개 영역 등급 평균은 4.92입니다.
+당신의 등급이 5.33이라면, 이는 표준점수 변환에서 높은 점수를 의미합니다. 특히 영어 등급과 수능 4개 영역 등급이 높다면, 합격 가능성은 상대적으로 높아 보입니다.
+하지만 최종 결정에는 여러 요소가 포함되므로, 다음과 같은 사항을 확인해보세요:
+1. **모집인원**: 9명으로 적게 모집하므로 경쟁률이 낮습니다.
+2. **성적 평균**: 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균은 407.50이고, 영어 등급 평균은 4.12이며, 수능 4개 영역 등급 평균은 4.92입니다.
+3. **경쟁률**: 약 1.88대1로 낮습니다.
+따라서, 당신의 성적이 높다면 합격 가능성은 상당히 높아 보입니다. 하지만 최종 결정은 입학관리위원회에서 이루어지므로, 정확한 결과는 입학공고를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1293868347827449</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우에는 충원합격이 되었으나 등록 의사가 없는 것으로 간주합니다.
+따라서 예비 12번으로 받았다면, 이는 대기 순위를 의미하며 충원 합격 가능성이 있습니다. 하지만 다음과 같은 점들을 고려해야 합니다:
+1. **전화 연락 두절**: 만약 전화 통보를 받지 못했다면, 등록 의사가 없는 것으로 간주될 수 있으므로 이메일이나 문자 메시지를 통해 직접 확인하는 것이 좋습니다.
+2. **등록 기한**: 충원 합격자 발표 이후 지정된 등록 기간 내에 등록금을 납부해야 합니다. 지정 기일 내에 등록하지 않으면 합격 취소될 수 있습니다.
+3. **합격 확실성**: 예비 순위는 확실한 합격 보장은 아니므로, 최종적으로 합격 여부를 확인하기 위해 입학관리팀과 연락을 취하는 것이 좋습니다.
+4. **기타 정보**: 충원 합격자 발표 이후에도 추가로 합격자가 발생할 수 있으므로, 최신 정보를 확인하고 대비해야 합니다.
+따라서 예비 12번으로 받았다면 합격 가능성은 있지만 확실하지 않습니다. 입학관리팀과 직접 연락하여 상황을 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3122568907517883</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 유아교육학과의 입학 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. **모집인원 및 지원자 수**: 각 모집단위별로 모집인원이 다르고, 지원자의 수와 성적 분포도 중요합니다.
+2. **전형 방식**: 유아교육학과는 일반적으로 학생부 종합전형을 많이 사용하므로, 수능 점수 외에도 학생부 등 다른 평가 요소들이 중요한 역할을 합니다.
+3. **학생부 성적**: 수능 점수 외에 고교 3년간의 학업 성적이 중요합니다. 특히 국어, 수학, 영어 등의 성적이 높다면 유리할 것입니다.
+4. **면접 및 기타 평가**: 일부 전형에서는 면접이나 실기평가 등이 포함될 수 있으므로, 이 부분에서도 좋은 성적을 보여줘야 합니다.
+5. **학교 정책**: 각 대학의 입학 정책과 점수 기준도 중요합니다. 일부 대학은 특정 학생부 성적 이상을 요구할 수도 있습니다.
+4.75라는 높은 수능 점수는 유리한 요인일 것입니다만, 최종 결정은 여러 요소가综上所述，该考生的分数在理论上是有机会被幼师专业录取的，但实际录取情况还需考虑其他因素。</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1312961704306954</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현재 아동학과로 분류됨)에 대해 다음과 같이 답변 드리겠습니다:
+1. **모집인원 및 지원 경쟁률**: 
+   - 보육가정상담학과는 2024년에는 아동학과로 분류되어 있습니다.
+   - 정확한 모집인원은 공고일 때 확인해야 합니다, 하지만 이전 년도와 비슷한 수준으로 예상됩니다.
+2. **성적 기준**:
+   - 동의대학교는 학생부종합전형과 수능 성적을 종합적으로 평가합니다.
+   - 4.16등급은 상당히 좋은 점수입니다, 하지만 최종 합격 여부는 학교생활기록부와 면접 등 다른 요소도 고려됩니다.
+3. **학업역량 및 전공적합성**:
+   - 동의대학교는 학생부에서 학업역량과 전공적합성을 중점적으로 평가합니다.
+   - 보육가정상담학과와 관련된 활동이나 경험을 잘 반영하고 있다면 이 부분에서 좋은 점수를 받을 수 있습니다.
+4. **최종 결정 요인**:
+   - 동등한 학생들 사이에서는 면접 성적, 학교생활기록부의 내용 등이 중요하게 작용할 수 있습니다.
+   - 4.16등급은 좋은 기초를 제공하지만, 최종 합격 여부는 여러 요소가综上所述，该学生的4.16等第在申请保育家庭咨询学（现为儿童学）专业时确实是一个很好的基础。但是，最终录取结果还会受到其他因素的影响，如面试成绩、学校成绩单中的内容等。因此，虽然有希望被录取，但不能完全确定。
+如果您还有其他具体问题或需要进一步的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.05000770420239117</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프지웨어융합학과는 &lt;나&gt;군 학생부교과(평생학습자전형)로 모집됩니다. 그러나 이 전형은 일반고, 자율고 등 일반 고등학교 졸업자뿐만 아니라 평생학습자도 지원할 수 있는 특성화된 전형입니다.
+소프트웨어융합학과에 정시로 들어가기 위해서는 다음과 같은 점수를 얻어야 합니다:
+1. **국어**: 4등급 이상
+2. **수학**: 3등급 이상 (미적분 포함)
+3. **영어**: 4등급 이상
+평균 등급을 말씀하시는 것이라면, 이 전형에서는 학교생활기록부와 교과 성적이 주요 평가 기준이므로, 국어, 수학, 영어 등 주요 과목에서 꾸준히 좋은 성적을 유지하는 것이 중요합니다. 대략적으로는:
+- **국어**: 4등급
+- **수학**: 3등급 이상 (특히 미적분)
+- **영어**: 4등급
+이 정도의 등급을 유지하면 소프트웨어융합학과에 정시로 지원하는 데 유리할 것입니다. 그러나 최종 합격 가능성은 수능 성적이 아닌 학교생활기록부와 교과 성적, 그리고 서류평가 등을 종합적으로 평가받으므로, 단순 등급만으로는 확정되지 않습니다.
+추가적인 정보나 자세한 질문이 있으시다면, 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>6.385927472725222e-09</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 서류평가와 면접평가가 함께 이루어집니다. 서류평가에서는 학생부종합 및 전공적합성 등을 평가하며, 특히 세특(세부능력 및 특기사항) 내용이 중요한 역할을 합니다.
+1. **서류평가**:
+   - **세특 내용**: 세특 부분은 매우 중요합니다. 실제 경험과 노력에 대한 구체적인 사례를 기재해야 하며, 과장된 내용이나 부정적 사례와 같은 문제점이 있습니다.
+   - **주의사항**: 학교생활기록부의 주체는 '저는'으로 기재되어야 하고, 학교 밖에서의 경험도 포함시킬 수 있습니다. 동일한 내용을 반복적으로 기재하거나 과장된 내용을 기재하면 부정적 평가를 받을 수 있습니다.
+2. **면접평가**:
+   - **질문**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다.
+   - **준비사항**: 지원동기에 대해 구체적인 이야기와 함께 입학 후의 계획을 준비해야 합니다. 또한, 고교 생활 중 겪은 어려움과 이를 해결하기 위한 노력을 설명하는 것이 중요합니다.
+3. **추가 서류**:
+   - **제출서류**: 제출서류는 학생부 온라인 제공 동의자가 아닌 경우에만 필요하며, 이외에는 특별한 추가 서류는 없습니다.
+   - **학생부 온라인 제공 동의자**: 학생부를 온라인으로 제공 받을 수 있습니다.
+따라서, 소프트웨어융합학과에서는 세특 내용이 매우 중요합니다. 구체적인 경험과 노력에 대한 사례를 기재하고, 과장되지 않은 내용을 기록하는 것이 좋습니다. 또한 면접에서도 이러한 내용을 잘 준비하여 답변해야 합니다.
+더 궁금한 점이나 추가 정보가 필요하시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.003615093571330125</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최초합격자 발표 결과를 보면, 해당 학과의 평균 수능 4개 영역 표준 변환 점수는 {317.87 / 9.08}이며, 평균 영어 등급은 {3.30 / 0.82}입니다.
+당신이 문의하신 정시 성적이 4.08이라면, 이는 수능 4개 영역 표준 변환 점수로 환산하면 약 317점 정도 됩니다 (영어 등급은 해당 점수가 아닌 것으로 보아, 평균 영어 등급과 비교하는 것이 더 적절할 것 같습니다).
+따라서, 정시 성적이 4.08이라면, 이는 최초합격자 발표 결과에서 볼 수 있는 평균 수능 4개 영역 표준 변환 점수와 비슷하거나 약간 낮은 수준입니다. 그러나 동의대학교 소프트웨어공학부는 경쟁률이 높은 학과로, 최초합격자 발표 결과에서 볼 수 있듯이 많은 지원자가 경쟁하고 있습니다.
+따라서, 정시 성적이 4.08이라면 최초합격에 성공할 가능성은 있지만, 확실한 것은 아닙니다. 특히 다른 지원자의 성적과 비교하여 평균을 넘지 못하거나, 동등한 점수를 가진 많은 지원자가 있을 경우 경쟁이 치열해질 수 있습니다.
+결론적으로, 정시 성적이 4.08이라면 최초합격 가능성은 있으나, 확실하지 않습니다. 다른 지원자의 성적과 비교하여 평균을 넘는지 확인하고, 해당 학과의 경쟁률을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1879284904691479</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 정시모집군은 "다"로 분류되어 있습니다. 전형 요소 반영 비율을 살펴보면, 실기/실적(경기실적우수자전형)에서는 학생부교과 18% + 출결 12% + 서류(실적) 70%로 구성되어 있습니다.
+이 중 학생부교과 성적이 반영되는 비율은 18%입니다. 일반적으로 전반적인 학업 역량을 평가하는 학생부 교과성적의 등급 분포는 다음과 같습니다:
+- A: 1등급
+- B: 3등급
+- C: 5등급
+따라서, 평균 5등급으로는 학생부교과 성적이 충분히 높지 않아 정시모집에 합격하기 어렵다고 볼 수 있습니다. 하지만, 실적이나 출결 등 다른 요소가 우수하다면 가능성을 열어두어야 합니다.
+따라서, 평균 5등급으로 소프트웨어융합학과를 정시로 지원하는 것은 어려울 것으로 예상됩니다. 다른 전형을 고려하거나, 학업 성적 향상을 위해 노력하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2517455281495745</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 경쟁률과 지원자들의 성적 분포를 고려해야 합니다.
+위에서 제공된 표에서는 신소재공학과(신소재공학과, 분자나노공학과)의 모집 인원이 56명이고 지원 인원이 81명으로 경쟁률이 1.45입니다. 지원자의 성적 평균은 286.97점이며 표준 편차는 15.35입니다.
+4.28이라는 점수는 표준 변환 점수로 보았을 때 상당히 높은 수치입니다. 표준 변환 점수가 높다는 것은 일반적으로 좋은 성적을 의미합니다. 그러나 신소재공학과의 경쟁률이 1.45라는 것은 여전히 많은 지원자가 있습니다.
+따라서, 4.28이라는 점수로는 충분히 합격할 수 있는 가능성은 있지만, 정확한 확률을 예측하기 위해서는:
+1. 해당 과목의 성적 분포를 더 자세히 알아보아야 합니다.
+2. 최근 몇 년간의 입학 결과와 경쟁률을 참조해야 합니다.
+결론적으로, 4.28이라는 점수로 신소재공학과에 지원하는 것은 가능하지만, 확실한 합격을 보장할 수는 없습니다. 최선을 다해 지원하시고, 추가적인 정보를 수집하여 결정하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.2208783538968602</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형)에서는 자기소개서를 제출해야 합니다. 
+자기소개서는 지원자의 학업역량, 전공적합성 등을 평가하는 중요한 서류로 반영됩니다. 따라서 지원자는 자신의 학업 경력, 관심 분야, 입학 후 계획 등에 대해 자세하게 작성해 주시기 바랍니다.
+자기소개서 제출 여부와 관련된 추가 정보는 다음과 같습니다:
+1. 자기소개서는 수능(일반학생전형) 모집단위에서 필수적으로 제출해야 합니다.
+2. 서류평가 영역 중 학업역량과 전공적합성 부분에서 중요한 역할을 합니다.
+3. 면접평가에서도 자기소개서 내용이 참고될 수 있습니다.
+따라서 수능(일반학생전형)으로 지원하려는 경우, 자기소개서를 작성하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>8.473836245292663e-06</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교 수능 정시 모집에서 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. **모집단위와 전형요소**: 각 모집단위별로 수능 반영 비율과 방식이 다릅니다. 예를 들어, 일부 단과대학에서는 수능 점수만을 기준으로 합격자를 선발할 수도 있고, 다른 곳에서는 수능 점수와 서류평가 등을 종합적으로 평가합니다.
+2. **최저합격선**: 각 모집단위별로 최저합격선이 설정되어 있습니다. 4.5라는 점수가 해당 단과대학의 최저합격선을 넘는지 확인해야 합니다.
+3. **경쟁률**: 동일한 학과에서 지원자가 많으면 경쟁률이 높아져 합격 가능성은 낮아질 수 있습니다.
+4. **추가모집 여부**: 추가모집이 열릴 경우, 추가모집에서도 4.5라는 점수가 충분히 고려될 수 있습니다. 하지만 추가모집의 모집인원과 지원자 수에 따라 달라질 수 있습니다.
+5. **기타 평가 요소**: 일부 단과대학에서는 서류평가나 면접 등 다른 평가 요소를 통해 학생들을 종합적으로 평가하기 때문에, 수능 점수만으로는 결정되지 않을 수도 있습니다.
+따라서, 가장 정확한 답변을 드리기 위해서는:
+- 해당 단과대학의 모집요강을 확인해보세요.
+- 최저합격선이 무엇인지 파악하세요.
+- 추가모집 여부와 모집인원을 확인하세요.
+위 정보를 바탕으로 전문가에게 상담하거나, 동의대학교 입학 홈페이지나 학교 관계자에게 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.2992953779285092</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과(신소재공학과, 분자나노공학과)는 정시 모집군 &lt;가&gt;군에 속합니다.
+&lt;가&gt;군의 전형요건을 확인해보겠습니다:
+- &lt;가&gt;군 실기/실적(일반학생전형): 신소재공학과, 체육학과, 레저스포츠학과, 태권도학과 / 68,000원
+&lt;가&gt;군은 주로 실기나 실적을 기준으로 평가하는 전형입니다. 하지만 정시 모집군 &lt;가&gt;군의 경우, 학생부교과 성적이 반영되므로 국어, 수학, 영어 등 학업성적도 중요하게 고려됩니다.
+신소재공학과는 과학 분야에 대한 지식이 필요하므로, 과학 관련 과목에서 높은 점수를 받는 것이 유리할 것입니다. 하지만 정확한 등급 기준을 말씀드리기는 어렵습니다. 대체로:
+- 국어: 4등급 이상
+- 수학: 3등급 이상 (특히 과탐 관련)
+- 영어: 5등급 이상
+이런 성적을 가지고 있다면, 신소재공학과에 합격할 가능성이 높아 보입니다. 하지만 최종 합격 여부는 다양한 요인(면접 등)에 따라 달라질 수 있으므로, 정확한 기준은 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+추가적으로, 2024년도 주요 변경사항을 보면 신소재공학과는 학부 통합으로 인해 명칭이 변경되었으며, 모집군은 그대로 유지된 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.03522962443994099</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산할 때, 작년 데이터와 비교해보는 것은 좋은 접근법입니다. 하지만 몇 가지 중요한 점을 고려해야 합니다:
+1. **모집인원과 지원자 수**: 작년에 신소재공학과의 모집인원이 2024년과 비슷한지 확인해야 합니다. 만약 작년보다 많은 인원이 모집되었다면, 경쟁률이 높아져 평균 점수가 낮아질 가능성이 있습니다.
+2. **경쟁률**: 작년의 경쟁률이 2024년과 비슷한지 확인해야 합니다. 경쟁률이 높아졌다면, 평균 점수는 상대적으로 낮아질 수 있습니다.
+3. **입학사정관의 평가**: 동의대학교에서는 입학사정관의 평가를 포함하여 전형을 진행합니다. 이 평가는 표준점수 외에도 다양한 요소를 고려하므로, 작년과 2024년 사이에 입학사정관의 평가 기준이 달라졌다면 결과도 달라질 수 있습니다.
+4. **표준점수 변동**: 표준점수가 매년 약간 변동될 수 있으므로, 작년의 표준점수가 2024년과 완벽히 일치하지 않을 수도 있습니다.
+5. **추세 분석**: 작년부터 최근 몇 년 동안의 평균 점수 추세를 분석하면 더 명확한 예측을 할 수 있습니다.
+따라서, 작년 신소재공학과의 표준점수가 447점보다 약간 높았다고 해도, 2024년에도 최종 평균 점수로 447점을 넘길 가능성이 있습니다. 하지만 확실한 예측은 어렵습니다. 동의대학교 입학관리 홈페이지나 학교 관계자에게 직접 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.
+추가적으로, 동의대학교 입학관리 홈페이지에서 제공하는 최신 정보와 전형요강을 확인하시면 더 구체적인 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.02788874802487878</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이면 신소재공학과에 붙는 것은 쉽지 않을 것 같습니다.
+다음은 신소재공학과의 모집인원 및 지원 경쟁률 등을 고려한 분석입니다:
+1. **모집인원**: 신소재공학과의 정원이 4명 이내로 제한되어 있습니다.
+2. **경쟁률**: 일반적으로 같은 학과에서 30:1 이상의 경쟁률을 보이는 경우가 많습니다.
+현재 예상 성적(4.1~4.2)은 해당 학과의 평균적인 입학 점수보다 낮아 보입니다. 하지만 최종 결정은 수능 실점 및 면접 등 다양한 요소에 따라 달라질 수 있습니다.
+추천 사항:
+- **면접 준비**: 면접에서 자신의 열정과 적합성을 잘 표현할 수 있도록 준비하세요.
+- **추가 지원**: 다른 학과나 대학을 추가로 지원하는 것을 고려해보세요. 
+- **정보 확인**: 동의대학교 입학 홈페이지를 통해 최신 모집요강 및 성적 기준 등을 확인하시기 바랍니다.
+결국, 정확한 예측은 불가능하므로 다양한 옵션을 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.3064613094055213</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능(일반학생전형) 최초합격자의 성적을 확인해보겠습니다.
+인공지능학과는 ICT융합공과대학에 속하며, 해당 학과의 최고 경쟁률은 1.60으로 나타났습니다. 지원 인원이 15명이고 모집 인원은 15명입니다. 
+최초합격자의 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 415.80, 표준 편차 10.49
+- 영어 등급: 평균 4.13, 표준 편차 0.71
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 430.10, 표준 편차 5.32
+이러한 성적을 바탕으로 볼 때, 인공지능학과의 최소 경쟁률은 약 1.60입니다. 따라서 대략적인 성적이 다음과 같다면 좋은 입학 가능성을 가질 수 있습니다:
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 400 이상
+- 영어 등급: 3.5 이상
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 410 이상
+이러한 성적을 기반으로 지원하시면 좋은 결과를 얻을 수 있을 것입니다. 하지만 최종적인 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 정확한 정보는 동의대학교 입학 홈페이지나 관련 공지사항을 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.3603082491845081</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 보고 정확히 어떤 모집단위에 지원할 수 있는지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. 해당 점수가 4개 영역의 표준점수인지, 등급인지 확인이 필요합니다.
+2. 지원하고자 하는 모집단위와 그 모집단위의 전형요소 반영비율을 알아야 합니다.
+5.27이라는 점수만으로는 충분한 정보가 부족하여 정확히 추합 가능한지 판단하기 어렵습니다. 
+추천되는 방법은 다음과 같습니다:
+1. 해당 점수가 4개 영역의 표준점수인지, 등급인지 확인합니다.
+2. 지원하고자 하는 모집단위의 전형요소 반영비율을 확인합니다.
+3. 동의대학교 입학정보 홈페이지나 학교 관계자에게 문의하여 정확한 정보를 얻습니다.
+이런 방식으로 더 많은 정보를 수집하면, 5.27이라는 점수로 추합 가능한 모집단위를 파악할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.06118302028746843</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중간 정도의 성적이므로, 소프트웨어공학부에 지원하는 데에는 가능성이 있지만 확률은 낮을 수 있습니다.
+소프트웨어공학부는 보통 고득점자를 선호하므로, 4.2라는 점수로는 경쟁력이 부족할 가능성이 큽니다. 그러나 다음과 같은 요인들을 고려하면 더 좋은 결과를 얻을 수 있을 것입니다:
+1. **면접 성적**: 면접에서 우수한 성적이 나온다면, 합격 가능성은 높아질 수 있습니다.
+2. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서가 있다면 지원자의 전반적인 능력을 보완할 수 있습니다.
+3. **특기사항 및 활동 경력**: 다양한 활동이나 특기를 통해 지원자가 소프트웨어 분야에 적합하다는 점을 입증한다면 이점이 될 수 있습니다.
+4. **추천교사의 평가**: 교사 추천서에서 긍정적인 평가를 받으면 도움이 될 것입니다.
+5. **면접 준비**: 면접에서는 학업역량과 전공적합성을 잘 보여줄 수 있도록 충분히 준비해야 합니다.
+6. **교과 성적의 균형**: 국어, 수학, 영어 등 주요 과목에서 좋은 성적이 나온다면 이점이 될 수 있습니다.
+결론적으로 4.2라는 점수로는 낮은 확률이지만, 위와 같은 요인들을 잘 활용한다면 합격 가능성은 높아질 수 있습니다. 그러나 가장 중요한 것은 지원자의 전반적인 능력과 적합성을 입증하는 자료를 준비하고, 면접에서도 최선을 다해야 합니다.
+추가적으로, 동의대학교의 정시 모집요강이나 전형요소 반영비율 등을 확인하여 더 구체적인 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.02633073874362445</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关的信息。根据提供的表格信息：
+1. **化学环境工程学部的一般学生招生类型**：
+   - 招生专业：化学工程与工艺、环境工程、应用化学等。
+   - 考试科目及权重：国语（25%）、数学（25%）、英语（25%）和探究（社会或科学，两个科目合计占25%）。对于数学（微积分或几何），应试者可以获得数学标准分的10%加分。
+2. **成绩计算方法**：
+   - 对于化学环境工程学部的一般学生招生类型，国语、数学、英语和探究的标准分数将被加权计算。
+   - 如果考生在数学中选择了微积分或几何，并且参加了考试，则可以额外获得数学标准分的10%加分。
+3. **成绩要求**：
+   - 通常，学校会设定一个最低分数线。具体分数要求需要查看学校的招生简章或者官方网站上的详细信息。
+根据您提供的成绩（国语：92、数学：85、英语：76、探究：84），我们可以进行如下计算：
+- 国语：92
+- 数学：85 + 85 * 10% = 85.85 （假设考生选择了微积分或几何并参加了考试）
+- 英语：76
+- 探究：84
+加权平均分：
+\[ \frac{92 + 85.85 + 76 + 84}{4} = \frac{337.85}{4} = 84.4625 \]
+这个成绩看起来是符合化学环境工程学部一般学生招生类型的最低要求的，但具体是否能够录取还需要参考学校的实际分数线。建议您查看东义大学官方网站上的详细信息或直接咨询学校招生办公室以获取准确的信息。
+如果您想确认具体的录取可能性，请访问东义大学官网（https://ipsi.deu.ac.kr/main.do）并查阅最新的招生简章和分数线。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.02614788198791056</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부는 공과대학에 속해 있으며, 해당 학과는 수능(일반학생전형)을 통해 지원할 수 있습니다.
+수능(일반학생전형)의 경우, 동의대식 정시 성적 4.25를 반영하여 점수를 계산해야 합니다. 수능 성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이 경우, 동의대식 정시 성적 4.25는 수능 점수로 변환되어 합격 가능성을 판단할 수 있습니다.
+1. **국어**: 동의대식 정시 성적에서 국어 부분을 확인합니다.
+2. **수학**: 동의대식 정시 성적에서 수학 부분을 확인하고, 해당 과목이 미적분 또는 기하 중 하나라면 10% 가산점이 적용됩니다.
+3. **영어**: 동의대식 정시 성적에서 영어 등급을 확인합니다 (예: 4등급).
+4. **탐구**: 탐구 영역에서는 상위 2개 과목의 표준점수를 합산하여 반영합니다.
+예를 들어, 국어가 105점, 수학이 98점(미적분 응시), 영어가 4등급, 탐구가 73점일 경우:
+- 국어: 105
+- 수학: 98 + (98 * 0.1) = 107.8
+- 영어: 115 (4등급에 따른 점수)
+- 탐구: 73
+합산 점수는:
+105 + 107.8 + 115 + 73 = 401.8
+이 점수를 화학환경공학부의 최저 합격 점수와 비교하여 판단할 수 있습니다.
+**주의사항:**
+- 최종 합격 여부는 모집단위별로 다를 수 있으므로, 해당 학과의 최신 모집요강을 확인해야 합니다.
+- 동의대식 정시 성적은 실제 수능 점수와 일치하지 않을 수 있으므로, 정확한 변환표를 참조하여 계산하는 것이 좋습니다.
+따라서, 동의대식 정시 성적이 4.25라면, 해당 점수가 화학환경공학부의 최저 합격 점수보다 높다면 일반학생전형으로 지원할 수 있습니다. 하지만 가장 정확한 판단을 위해서는 해당 학과의 최신 모집요강 및 성적 변환표를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.05413680261676683</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 수능 성적에서 중간 정도의 점수가 될 것입니다. 그러나 영화학과의 입학 경쟁률과 모집인원, 지원자의 전체 성적 분포를 고려해야 합니다.
+1. **모집인원 및 지원자 수**: 영화학과의 정시 모집 인원과 지원자가 얼마나 되는지 확인해야 합니다. 만약 모집 인원이 적고 지원자가 많다면 경쟁률은 높아질 것입니다.
+2. **전형요소**: 영화학과는 일반적으로 실기와 서류를 함께 평가하기 때문에, 수능 점수 외에도 학생부나 면접 등 다른 요소도 중요합니다.
+3. **경쟁률 및 성적 분포**: 최근 몇 년간의 입학 경쟁률과 지원자의 성적 분포를 확인하여 현재의 4.2점이 어느 위치에 있는지 파악해야 합니다. 만약 이 점수가 평균 이상이라면 합격 가능성은 높아질 것입니다.
+4. **전형요소 반영 비율**: 영화학과의 전형요소 반영 비율을 확인하여 수능 성적이 얼마나 중요한지를 판단합니다. 예를 들어, 실기 70%와 서류 30%라면 수능 점수가 중요하지 않을 수도 있습니다.
+5. **추천서나 면접**: 추천서나 면접 등 다른 평가 요소도 고려해야 합니다. 이들 요소에서 좋은 성적을 거둘 경우 합격 가능성은 높아질 것입니다.
+따라서, 정확한 답변을 위해서는 영화학과의 모집인원, 지원자의 전체 성적 분포, 전형요소 반영 비율 등을 확인해야 합니다. 만약 가능하다면 해당 대학 입학 홈페이지나 관계자에게 직접 문의하는 것이 가장 정확한 정보를 얻는 방법입니다.
+추가적으로, 수능 점수가 중간 정도라면 합격 가능성은 있지만, 경쟁률이 높다면 불안정성을 고려해야 합니다. 따라서, 다른 평가 요소에서도 좋은 성적을 거두는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.06901778711071674</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译后的回答：
+面试流程如下：
+1. 入场室入座
+2. 身份确认
+3. 移动到考场外
+4. 进入考场
+5. 发表个人动机和学业计划
+6. 回答与学业能力、专业匹配性相关的共同问题并进行问答
+7. 其他问题（包括提交文件的真实性验证等）
+8. 离场
+请注意，这个流程适用于大部分情况。具体细节可能会根据不同的招生类别有所变化。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.2301367723818167</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3481435766936642</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2985142722158284</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.198109825991883</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.3233289244547464</v>
+      <c r="D305" t="n">
+        <v>0.2815892249671252</v>
       </c>
     </row>
   </sheetData>
